--- a/DisenioEstructurasCelayesVicentin.xlsx
+++ b/DisenioEstructurasCelayesVicentin.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>"palabraWordix"</t>
   </si>
@@ -269,14 +269,20 @@
     <t>¿Para qué se utiliza?: Se utiliza para almacenar los datos generales/totales de un usuario que ha jugado al menos una partida de wordix.</t>
   </si>
   <si>
-    <t>EJEMPLO CON DATOS:</t>
+    <t>URL Repositorio GITHUB</t>
+  </si>
+  <si>
+    <t>https://github.com/abrilbc/wordix.git</t>
+  </si>
+  <si>
+    <t>EJEMPLO CON DATOS DE $coleccionPartidas:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +375,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -484,7 +499,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -523,6 +538,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,7 +870,9 @@
         <v>62</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
@@ -868,7 +891,9 @@
         <v>63</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
@@ -1397,7 +1422,7 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
@@ -1479,8 +1504,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/DisenioEstructurasCelayesVicentin.xlsx
+++ b/DisenioEstructurasCelayesVicentin.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brisa\OneDrive\Escritorio\Mis Repositorios\wordix\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5268"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5268" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>"palabraWordix"</t>
   </si>
@@ -131,57 +132,18 @@
     <t>datos</t>
   </si>
   <si>
-    <t>$nombre</t>
-  </si>
-  <si>
-    <t>$partidasCont</t>
-  </si>
-  <si>
-    <t>$puntajeTotal</t>
-  </si>
-  <si>
-    <t>$victorias</t>
-  </si>
-  <si>
-    <t>$porcentaje</t>
-  </si>
-  <si>
-    <t>$intento1</t>
-  </si>
-  <si>
-    <t>$intento2</t>
-  </si>
-  <si>
-    <t>$intento3</t>
-  </si>
-  <si>
-    <t>$intento4</t>
-  </si>
-  <si>
-    <t>$intento5</t>
-  </si>
-  <si>
-    <t>$intento6</t>
-  </si>
-  <si>
     <t>Información de la estructura:</t>
   </si>
   <si>
     <t xml:space="preserve">Tipo: Multidimensional </t>
   </si>
   <si>
-    <t>Tipo de datos: Almacena valores STRING e INTEGER</t>
-  </si>
-  <si>
     <t>¿Para qué se utiliza?: Se utiliza para almacenar datos sobre las partidas jugadas en WORDIX</t>
   </si>
   <si>
     <t xml:space="preserve">Tipo: Indexado </t>
   </si>
   <si>
-    <t>Tipo de datos: Almacena valores STRING</t>
-  </si>
-  <si>
     <t>¿Para qué se utiliza?: Es un arreglo para  almacenar palabras que van a ser utilizadas para jugar al WORDIX</t>
   </si>
   <si>
@@ -257,12 +219,6 @@
     <t>Tipo de datos:</t>
   </si>
   <si>
-    <t>STRING ($nombre)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT ($partidasCont, $puntajeTotal, $victorias, $intento1, $intento2, $intento3, $intento4, $intento5, $intento6) </t>
-  </si>
-  <si>
     <t>"partidas"</t>
   </si>
   <si>
@@ -276,6 +232,30 @@
   </si>
   <si>
     <t>EJEMPLO CON DATOS DE $coleccionPartidas:</t>
+  </si>
+  <si>
+    <t>string y numéricos.</t>
+  </si>
+  <si>
+    <t>Tipo de datos: Almacena valores string y numéricos.</t>
+  </si>
+  <si>
+    <t>Tipo de datos: Almacena valores STRING.</t>
+  </si>
+  <si>
+    <t>$partidas=</t>
+  </si>
+  <si>
+    <t>"intentos"</t>
+  </si>
+  <si>
+    <t>EJEMPLO CON DATOS:</t>
+  </si>
+  <si>
+    <t>Tipo de datos: string y numéricos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Para qué se utiliza?: Se utiliza para almacenar los datos totales de un usuario que acaba de jugar una partida de Wordix. </t>
   </si>
 </sst>
 </file>
@@ -499,7 +479,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -546,6 +526,32 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -833,17 +839,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="13.21875" customWidth="1"/>
@@ -855,23 +875,23 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -879,20 +899,20 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="16" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -900,14 +920,14 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -990,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1010,7 +1030,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1030,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1050,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1121,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>8</v>
       </c>
@@ -1138,7 +1158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>9</v>
       </c>
@@ -1156,350 +1176,675 @@
       </c>
       <c r="J18" s="11"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4">
-        <f ca="1">C21:P150</f>
+      <c r="C21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="4">
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B23" s="20">
         <v>1</v>
       </c>
-      <c r="E21" s="4">
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B24" s="20">
         <v>2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B25" s="20">
         <v>3</v>
       </c>
-      <c r="G21" s="4">
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B26" s="20">
         <v>4</v>
       </c>
-      <c r="H21" s="4">
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B27" s="20">
         <v>5</v>
       </c>
-      <c r="I21" s="4">
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="20">
         <v>6</v>
       </c>
-      <c r="J21" s="4">
+      <c r="C28" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="20">
         <v>7</v>
       </c>
-      <c r="K21" s="4">
+      <c r="C29" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B30" s="20">
         <v>8</v>
       </c>
-      <c r="L21" s="4">
+      <c r="C30" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B31" s="20">
         <v>9</v>
       </c>
-      <c r="M21" s="4">
+      <c r="C31" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B32" s="20">
         <v>10</v>
       </c>
-      <c r="N21" s="4">
+      <c r="C32" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="20">
         <v>11</v>
       </c>
-      <c r="O21" s="4">
+      <c r="C33" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="20">
         <v>12</v>
       </c>
-      <c r="P21" s="4">
+      <c r="C34" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="20">
         <v>13</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="C35" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="20">
         <v>14</v>
       </c>
-      <c r="R21" s="4">
+      <c r="C36" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="20">
         <v>15</v>
       </c>
-      <c r="S21" s="4">
+      <c r="C37" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="20">
         <v>16</v>
       </c>
-      <c r="T21" s="4">
+      <c r="C38" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="20">
         <v>17</v>
       </c>
-      <c r="U21" s="4">
+      <c r="C39" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="20">
         <v>18</v>
       </c>
-      <c r="V21" s="4">
+      <c r="C40" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="20">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="C41" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3</v>
+      </c>
+      <c r="E47" s="9">
+        <v>43</v>
+      </c>
+      <c r="F47" s="9">
+        <v>3</v>
+      </c>
+      <c r="G47" s="9">
+        <v>100</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1</v>
+      </c>
+      <c r="I47" s="9">
+        <v>1</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="3" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="26">
+        <v>1</v>
+      </c>
+      <c r="F57" s="26">
         <v>17</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="3" t="s">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="9">
-        <v>3</v>
-      </c>
-      <c r="E41" s="9">
-        <v>43</v>
-      </c>
-      <c r="F41" s="9">
-        <v>3</v>
-      </c>
-      <c r="G41" s="9">
-        <v>100</v>
-      </c>
-      <c r="H41" s="9">
-        <v>1</v>
-      </c>
-      <c r="I41" s="9">
-        <v>1</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
-        <v>1</v>
-      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="22"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="22"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/DisenioEstructurasCelayesVicentin.xlsx
+++ b/DisenioEstructurasCelayesVicentin.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>"palabraWordix"</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t xml:space="preserve">¿Para qué se utiliza?: Se utiliza para almacenar los datos totales de un usuario que acaba de jugar una partida de Wordix. </t>
+  </si>
+  <si>
+    <t>juan_lvp@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -552,6 +555,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -855,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,7 +931,9 @@
       <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>51</v>
       </c>
@@ -949,7 +957,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1850,8 +1858,9 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>